--- a/Design/Normalisation.xlsx
+++ b/Design/Normalisation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
   <si>
     <t>UNF</t>
   </si>
@@ -76,13 +76,34 @@
   </si>
   <si>
     <t>ConsumptionTypeDescription</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TypeCost</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>TypeCostID</t>
+  </si>
+  <si>
+    <t>UserConsumption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +130,14 @@
     <font>
       <i/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,13 +171,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,19 +486,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,11 +511,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -484,9 +526,14 @@
         <v>13</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -496,11 +543,11 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -510,11 +557,14 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -522,13 +572,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -536,13 +589,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -550,73 +606,85 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -624,11 +692,14 @@
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -636,61 +707,117 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7"/>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Normalisation.xlsx
+++ b/Design/Normalisation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="34">
   <si>
     <t>UNF</t>
   </si>
@@ -97,6 +97,27 @@
   </si>
   <si>
     <t>UserConsumption</t>
+  </si>
+  <si>
+    <t>ReadingID</t>
+  </si>
+  <si>
+    <t>CostID</t>
+  </si>
+  <si>
+    <t>CostPerUnit</t>
+  </si>
+  <si>
+    <t>CostStartDate</t>
+  </si>
+  <si>
+    <t>ReadingID-UserID</t>
+  </si>
+  <si>
+    <t>UserReading</t>
+  </si>
+  <si>
+    <t>TypeID</t>
   </si>
 </sst>
 </file>
@@ -171,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -185,6 +206,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,13 +850,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
